--- a/data/trans_camb/P19C07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,48</t>
+          <t>-2,28; 3,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,51</t>
+          <t>-4,41; 0,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,05</t>
+          <t>-1,8; 3,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,55</t>
+          <t>1,13; 7,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,6</t>
+          <t>-0,66; 4,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,5</t>
+          <t>2,08; 7,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,04</t>
+          <t>-0,07; 4,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,52</t>
+          <t>-1,9; 1,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,27</t>
+          <t>0,61; 4,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,58; 228,83</t>
+          <t>-55,36; 174,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,27; 54,75</t>
+          <t>-90,19; 37,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 175,58</t>
+          <t>-43,55; 168,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 1286,57</t>
+          <t>10,18; 1383,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 951,55</t>
+          <t>-46,41; 861,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,21; 1822,34</t>
+          <t>52,14; 1796,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 272,31</t>
+          <t>-7,02; 281,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,46; 106,93</t>
+          <t>-57,23; 100,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 271,35</t>
+          <t>13,3; 271,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,08</t>
+          <t>-4,88; -0,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,82</t>
+          <t>-3,44; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,2</t>
+          <t>-3,13; 2,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; -0,41</t>
+          <t>-5,43; -0,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,03</t>
+          <t>-4,44; 1,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,64</t>
+          <t>-3,31; 2,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,97</t>
+          <t>-4,55; -0,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,95</t>
+          <t>-2,92; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,52</t>
+          <t>-2,64; 1,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-93,15; 10,35</t>
+          <t>-90,36; 11,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 153,82</t>
+          <t>-67,71; 136,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,83; 110,16</t>
+          <t>-62,2; 137,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-86,78; -1,07</t>
+          <t>-84,88; 17,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,38; 36,75</t>
+          <t>-72,84; 40,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 84,17</t>
+          <t>-51,09; 96,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,27; -26,36</t>
+          <t>-82,16; -23,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 34,78</t>
+          <t>-58,41; 40,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 52,11</t>
+          <t>-48,64; 45,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,44</t>
+          <t>-3,49; 1,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,79</t>
+          <t>-3,0; 2,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,71</t>
+          <t>-5,08; 0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,71</t>
+          <t>-2,75; 3,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,16</t>
+          <t>-2,25; 6,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,74</t>
+          <t>-3,03; 4,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,46</t>
+          <t>-2,64; 1,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,97</t>
+          <t>-2,51; 1,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,84</t>
+          <t>-3,99; 0,82</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 62,55</t>
+          <t>-63,51; 51,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 64,37</t>
+          <t>-55,94; 80,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,26; 23,71</t>
+          <t>-85,05; 20,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,7; 630,84</t>
+          <t>-70,97; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,68; —</t>
+          <t>-80,99; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,91; 470,22</t>
+          <t>-65,64; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 63,19</t>
+          <t>-54,74; 50,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,93; 81,32</t>
+          <t>-52,5; 70,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,33; 27,32</t>
+          <t>-78,14; 31,41</t>
         </is>
       </c>
     </row>
@@ -1333,42 +1333,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,6</t>
+          <t>-1,8; 1,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,13</t>
+          <t>-2,09; 1,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,43</t>
+          <t>-1,74; 1,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,65</t>
+          <t>-2,2; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,65</t>
+          <t>-1,83; 2,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,41</t>
+          <t>-2,77; 2,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,4</t>
+          <t>-1,35; 1,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,23</t>
+          <t>-1,22; 1,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 79,96</t>
+          <t>-49,31; 69,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,83; 61,61</t>
+          <t>-55,07; 52,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 77,72</t>
+          <t>-48,31; 62,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 103,1</t>
+          <t>-42,93; 85,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 96,53</t>
+          <t>-36,45; 110,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 83,44</t>
+          <t>-53,85; 79,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 53,72</t>
+          <t>-34,93; 47,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 47,84</t>
+          <t>-29,7; 53,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 51,37</t>
+          <t>-34,85; 51,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,07</t>
+          <t>-4,49; 0,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,97</t>
+          <t>-4,53; 0,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,34</t>
+          <t>-2,87; 5,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,21</t>
+          <t>-4,67; -0,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,71</t>
+          <t>-4,23; 0,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,71</t>
+          <t>-4,35; 0,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -0,12</t>
+          <t>-3,69; -0,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,01</t>
+          <t>-3,66; -0,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,13</t>
+          <t>-3,09; 1,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,36; 76,56</t>
+          <t>-79,35; 68,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,41; 64,55</t>
+          <t>-79,9; 69,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 314,25</t>
+          <t>-64,43; 250,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-72,74; 13,54</t>
+          <t>-74,25; 1,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-69,74; 31,61</t>
+          <t>-71,62; 17,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,38; 31,08</t>
+          <t>-66,26; 12,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -2,5</t>
+          <t>-68,26; -2,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-64,92; 9,83</t>
+          <t>-67,83; 0,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 41,49</t>
+          <t>-57,2; 41,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,26; 12,3</t>
+          <t>2,2; 12,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,55</t>
+          <t>-2,75; 5,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 8,66</t>
+          <t>-4,52; 7,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,77</t>
+          <t>-0,6; 2,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,67</t>
+          <t>-0,85; 2,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,36</t>
+          <t>-1,39; 2,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,02</t>
+          <t>0,59; 4,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,76</t>
+          <t>-0,48; 2,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,56</t>
+          <t>-1,53; 2,56</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>25,91; 418,59</t>
+          <t>27,6; 398,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 210,78</t>
+          <t>-43,76; 188,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-80,48; 325,44</t>
+          <t>-82,46; 258,6</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 119,31</t>
+          <t>-16,06; 112,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 117,98</t>
+          <t>-23,14; 103,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 100,56</t>
+          <t>-40,11; 109,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>12,08; 149,48</t>
+          <t>10,4; 150,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 104,42</t>
+          <t>-12,79; 94,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 89,6</t>
+          <t>-39,08; 85,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,79</t>
+          <t>-1,13; 0,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,32</t>
+          <t>-1,54; 0,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,73</t>
+          <t>-1,47; 0,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,12</t>
+          <t>-0,83; 1,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,13</t>
+          <t>-0,84; 1,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,43</t>
+          <t>-0,65; 1,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,68</t>
+          <t>-0,67; 0,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,51</t>
+          <t>-0,93; 0,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,71</t>
+          <t>-0,74; 0,8</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 28,56</t>
+          <t>-28,2; 31,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 12,52</t>
+          <t>-39,76; 16,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 25,82</t>
+          <t>-37,68; 30,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 38,52</t>
+          <t>-21,51; 39,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 38,83</t>
+          <t>-20,82; 36,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 51,79</t>
+          <t>-16,64; 48,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 23,45</t>
+          <t>-18,0; 22,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 16,59</t>
+          <t>-24,19; 15,76</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 22,74</t>
+          <t>-19,21; 25,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
